--- a/data/my_portfolio_quant.xlsx
+++ b/data/my_portfolio_quant.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -919,6 +919,142 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="2">
+        <v>43780</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>41</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>71</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>18</v>
+      </c>
+      <c r="S8">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>26</v>
+      </c>
+      <c r="U8">
+        <v>29</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="2">
+        <v>43781</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>71</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>26</v>
+      </c>
+      <c r="U9">
+        <v>29</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/my_portfolio_quant.xlsx
+++ b/data/my_portfolio_quant.xlsx
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,6 +1055,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
+        <v>43782</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>41</v>
+      </c>
+      <c r="L10">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>71</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>18</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+      <c r="T10">
+        <v>26</v>
+      </c>
+      <c r="U10">
+        <v>29</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
